--- a/outputs-r202/g__CAG-180.xlsx
+++ b/outputs-r202/g__CAG-180.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -561,6 +566,11 @@
           <t>s__CAG-180 sp900315985</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900315985</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -612,6 +622,11 @@
           <t>s__CAG-180 sp900315985</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900315985</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -663,6 +678,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -714,6 +734,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -765,6 +790,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -816,6 +846,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -867,6 +902,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -918,6 +958,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -969,6 +1014,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1020,6 +1070,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1071,6 +1126,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1122,6 +1182,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1173,6 +1238,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1224,6 +1294,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1275,6 +1350,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1326,6 +1406,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1377,6 +1462,11 @@
           <t>s__CAG-180 sp002314305</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1426,6 +1516,11 @@
       <c r="O19" t="inlineStr">
         <is>
           <t>s__CAG-180 sp002314305</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp002314305(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__CAG-180.xlsx
+++ b/outputs-r202/g__CAG-180.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,43 +635,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="D4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.02990346756572716</v>
       </c>
       <c r="L4" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -691,43 +691,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9655203943430146</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>0.02990346756572716</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220046747895007e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03447960565676347</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9655203943430146</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -736,54 +736,54 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp002314305</t>
+          <t>s__CAG-180 sp002314305(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG218.fasta</t>
+          <t>RUG270.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="D6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.02990346756572716</v>
       </c>
       <c r="L6" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -799,47 +799,47 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG270.fasta</t>
+          <t>RUG665.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="D7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.02990346756572716</v>
       </c>
       <c r="L7" t="n">
-        <v>2.368475785866643e-14</v>
+        <v>2.240775982682625e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3333333333332623</v>
+        <v>0.4850482662170356</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -847,678 +847,6 @@
         </is>
       </c>
       <c r="P7" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG271.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG277.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG341.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG365.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG385.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG426.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG468.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG509.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>RUG543.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>RUG637.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>RUG665.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>RUG835.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.368475785866643e-14</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.3333333333332623</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp002314305</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>s__CAG-180 sp002314305(reject)</t>
         </is>
